--- a/experiment/quadratic/ex9.2.1/Experimentos_Generador/ex9.2.1(Quadratic)__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/quadratic/ex9.2.1/Experimentos_Generador/ex9.2.1(Quadratic)__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,55 +66,58 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>3 - 3x + 1.7662388432802816y</t>
-  </si>
-  <si>
-    <t>-1.81789505935288</t>
+    <t>5.550000000000001 - 3x</t>
+  </si>
+  <si>
+    <t>-2.5500000000000007</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.23256681002040058</t>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>7.9</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>0.8626187045851004</t>
-  </si>
-  <si>
-    <t>-4 + x - 0.2558034951312038y</t>
-  </si>
-  <si>
-    <t>-2.2011316120289806</t>
+    <t>-4.198250000000001 + x + 0.5050000000000001y</t>
+  </si>
+  <si>
+    <t>0.1982500000000007</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.4265237521284301</t>
-  </si>
-  <si>
-    <t>-0.0973331524908233</t>
-  </si>
-  <si>
-    <t>-0.15949758309437934</t>
-  </si>
-  <si>
-    <t>-7 + x + 1.527077967765638y</t>
-  </si>
-  <si>
-    <t>-4.168149809235088</t>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>-7.5</t>
+  </si>
+  <si>
+    <t>-8.100000000000001</t>
+  </si>
+  <si>
+    <t>-16.5455223880597 + x - 0.9452736318407959y</t>
+  </si>
+  <si>
+    <t>-9.545522388059702</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.5004082174406084</t>
-  </si>
-  <si>
-    <t>0.7458142047810261</t>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>-6.4</t>
+  </si>
+  <si>
+    <t>-1.9</t>
   </si>
   <si>
     <t>x</t>
@@ -123,25 +126,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>1.9470781041303145</t>
-  </si>
-  <si>
-    <t>0.5793889410435026</t>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>4.65</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>2.6960146434011474</t>
+    <t>-3.770850995024876</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>6.935766458836583</t>
-  </si>
-  <si>
-    <t>-9.636795708422495</t>
+    <t>46.915000000000006</t>
+  </si>
+  <si>
+    <t>-47.4822512437811</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -632,10 +635,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -653,18 +656,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -682,12 +685,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -705,17 +708,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -733,12 +736,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.48839300973759237</v>
+        <v>2.0100000000000002</v>
       </c>
     </row>
   </sheetData>
